--- a/Assets/Resources/Configs/Excel/NpcTalkTaskConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/NpcTalkTaskConfig.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="12620"/>
+    <workbookView windowWidth="19080" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="NpcTalkTask" sheetId="1" r:id="rId1"/>
-    <sheet name="Talk" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>id</t>
   </si>
@@ -23,13 +22,22 @@
     <t>玩家等级</t>
   </si>
   <si>
+    <t>任务Id</t>
+  </si>
+  <si>
+    <t>任务地点</t>
+  </si>
+  <si>
+    <t>任务要求数量</t>
+  </si>
+  <si>
+    <t>奖励（类型,Id，数量）</t>
+  </si>
+  <si>
     <t>普通对话</t>
   </si>
   <si>
-    <t>接取任务前对话</t>
-  </si>
-  <si>
-    <t>任务Id</t>
+    <t>任务前对话</t>
   </si>
   <si>
     <t>任务中对话</t>
@@ -44,25 +52,37 @@
     <t>选项内容</t>
   </si>
   <si>
+    <t>选项回答</t>
+  </si>
+  <si>
     <t>#NpcIdInfo</t>
   </si>
   <si>
     <t>#PlayerLvInfo</t>
   </si>
   <si>
-    <t>OrdinaryTaskLst</t>
-  </si>
-  <si>
-    <t>beforeTaskcompletion</t>
-  </si>
-  <si>
     <t>taskId</t>
   </si>
   <si>
-    <t>inTaskTalkList</t>
-  </si>
-  <si>
-    <t>taskcompletionList</t>
+    <t>taskLocation</t>
+  </si>
+  <si>
+    <t>taskRequirement</t>
+  </si>
+  <si>
+    <t>taskReward</t>
+  </si>
+  <si>
+    <t>ordinaryTask</t>
+  </si>
+  <si>
+    <t>beforeTaskCompletion</t>
+  </si>
+  <si>
+    <t>inTaskTalk</t>
+  </si>
+  <si>
+    <t>taskCompletion</t>
   </si>
   <si>
     <t>#ChoiceInfo</t>
@@ -71,31 +91,22 @@
     <t>title</t>
   </si>
   <si>
+    <t>answer</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>我接受</t>
-  </si>
-  <si>
-    <t>算了</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>#IdInfo</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>有什么能帮到你吗?</t>
+    <t>1,1,1</t>
+  </si>
+  <si>
+    <t>接受任务</t>
+  </si>
+  <si>
+    <t>考虑一下</t>
   </si>
 </sst>
 </file>
@@ -103,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -505,23 +516,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,66 +564,102 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -616,28 +667,40 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
         <v>7</v>
       </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -645,134 +708,37 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
         <v>7</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
-  <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5">
         <v>4</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Excel/NpcTalkTaskConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/NpcTalkTaskConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="7860"/>
+    <workbookView windowWidth="19080" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="NpcTalkTask" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -516,13 +516,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
@@ -741,6 +741,88 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Assets/Resources/Configs/Excel/NpcTalkTaskConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/NpcTalkTaskConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="9840"/>
+    <workbookView windowWidth="18480" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="NpcTalkTask" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>名字</t>
+  </si>
+  <si>
     <t>玩家等级</t>
   </si>
   <si>
@@ -58,7 +61,10 @@
     <t>#NpcIdInfo</t>
   </si>
   <si>
-    <t>#PlayerLvInfo</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>#PlayerTaskLvInfo</t>
   </si>
   <si>
     <t>taskId</t>
@@ -100,13 +106,22 @@
     <t>string</t>
   </si>
   <si>
-    <t>1,1,1</t>
+    <t>铁匠</t>
+  </si>
+  <si>
+    <t>1*1*13</t>
   </si>
   <si>
     <t>接受任务</t>
   </si>
   <si>
     <t>考虑一下</t>
+  </si>
+  <si>
+    <t>商店老板</t>
+  </si>
+  <si>
+    <t>2*2*1||2*1*1</t>
   </si>
 </sst>
 </file>
@@ -114,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -516,27 +531,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="22.75" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="23.75" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,95 +591,104 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
         <v>25</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -673,154 +697,166 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
         <v>5</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="1">
+        <v>12</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6">
         <v>7</v>
       </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>7</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>7</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1">
+        <v>11</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1">
-        <v>7</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
